--- a/REGULAR/OJT/CRIZALDO, THELMA.xlsx
+++ b/REGULAR/OJT/CRIZALDO, THELMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23963B75-BCE8-4211-A297-87D72D368742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4C3B35-D4C6-4A81-A166-D3E6B8A03157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="407">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2296,7 +2296,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4056" topLeftCell="A508" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="K515" sqref="K515"/>
+      <selection pane="bottomLeft" activeCell="H517" sqref="H517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2459,7 +2459,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.902999999999963</v>
+        <v>30.152999999999963</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2469,7 +2469,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>141.75</v>
+        <v>142</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10174,7 +10174,7 @@
       </c>
       <c r="E341" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.902999999999963</v>
+        <v>30.152999999999963</v>
       </c>
       <c r="F341" s="20"/>
       <c r="G341" s="13" t="str">
@@ -10184,7 +10184,7 @@
       <c r="H341" s="39"/>
       <c r="I341" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>141.75</v>
+        <v>142</v>
       </c>
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
@@ -10252,7 +10252,7 @@
       </c>
       <c r="E344" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.902999999999963</v>
+        <v>30.152999999999963</v>
       </c>
       <c r="F344" s="20"/>
       <c r="G344" s="13" t="str">
@@ -10262,7 +10262,7 @@
       <c r="H344" s="39"/>
       <c r="I344" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>141.75</v>
+        <v>142</v>
       </c>
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
@@ -10303,7 +10303,7 @@
       <c r="D346" s="39"/>
       <c r="E346" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.902999999999963</v>
+        <v>30.152999999999963</v>
       </c>
       <c r="F346" s="20"/>
       <c r="G346" s="13" t="str">
@@ -10315,7 +10315,7 @@
       </c>
       <c r="I346" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>141.75</v>
+        <v>142</v>
       </c>
       <c r="J346" s="11"/>
       <c r="K346" s="20" t="s">
@@ -10333,7 +10333,7 @@
       </c>
       <c r="E347" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.902999999999963</v>
+        <v>30.152999999999963</v>
       </c>
       <c r="F347" s="20"/>
       <c r="G347" s="13" t="str">
@@ -10343,7 +10343,7 @@
       <c r="H347" s="39"/>
       <c r="I347" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>141.75</v>
+        <v>142</v>
       </c>
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
@@ -10386,7 +10386,7 @@
       </c>
       <c r="E349" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.902999999999963</v>
+        <v>30.152999999999963</v>
       </c>
       <c r="F349" s="20"/>
       <c r="G349" s="13" t="str">
@@ -10396,7 +10396,7 @@
       <c r="H349" s="39"/>
       <c r="I349" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>141.75</v>
+        <v>142</v>
       </c>
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
@@ -10437,7 +10437,7 @@
       <c r="D351" s="39"/>
       <c r="E351" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.902999999999963</v>
+        <v>30.152999999999963</v>
       </c>
       <c r="F351" s="20"/>
       <c r="G351" s="13" t="str">
@@ -10449,7 +10449,7 @@
       </c>
       <c r="I351" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>141.75</v>
+        <v>142</v>
       </c>
       <c r="J351" s="11"/>
       <c r="K351" s="20" t="s">
@@ -10465,7 +10465,7 @@
       <c r="D352" s="39"/>
       <c r="E352" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.902999999999963</v>
+        <v>30.152999999999963</v>
       </c>
       <c r="F352" s="20"/>
       <c r="G352" s="13">
@@ -10476,7 +10476,7 @@
       </c>
       <c r="I352" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>141.75</v>
+        <v>142</v>
       </c>
       <c r="J352" s="11"/>
       <c r="K352" s="20" t="s">
@@ -10494,7 +10494,7 @@
       </c>
       <c r="E353" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.902999999999963</v>
+        <v>30.152999999999963</v>
       </c>
       <c r="F353" s="20"/>
       <c r="G353" s="13" t="str">
@@ -10504,7 +10504,7 @@
       <c r="H353" s="39"/>
       <c r="I353" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>141.75</v>
+        <v>142</v>
       </c>
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
@@ -14156,15 +14156,17 @@
       <c r="B515" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C515" s="13"/>
+      <c r="C515" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D515" s="39">
         <v>2</v>
       </c>
       <c r="E515" s="9"/>
       <c r="F515" s="20"/>
-      <c r="G515" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G515" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H515" s="39"/>
       <c r="I515" s="9"/>
@@ -14177,7 +14179,9 @@
       <c r="A516" s="40">
         <v>45108</v>
       </c>
-      <c r="B516" s="20"/>
+      <c r="B516" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C516" s="13"/>
       <c r="D516" s="39"/>
       <c r="E516" s="9"/>
@@ -14186,10 +14190,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H516" s="39"/>
+      <c r="H516" s="39">
+        <v>1</v>
+      </c>
       <c r="I516" s="9"/>
       <c r="J516" s="11"/>
-      <c r="K516" s="20"/>
+      <c r="K516" s="49">
+        <v>45110</v>
+      </c>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
@@ -15134,7 +15142,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>170.65299999999996</v>
+        <v>172.15299999999996</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
